--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_DOMUSE_yoy_AR2_50_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_DOMUSE_yoy_AR2_50_9_full.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,18 +417,18 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>39400</v>
+        <v>39583</v>
       </c>
       <c r="B2">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="D2">
-        <v>2008</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>39583</v>
+        <v>39765</v>
       </c>
       <c r="B3">
         <v>2008</v>
@@ -436,27 +436,21 @@
       <c r="D3">
         <v>2009</v>
       </c>
-      <c r="E3">
-        <v>0.2028382723242572</v>
-      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>39765</v>
+        <v>39948</v>
       </c>
       <c r="B4">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="D4">
-        <v>2009</v>
-      </c>
-      <c r="E4">
-        <v>-0.9007664217083988</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>39948</v>
+        <v>40130</v>
       </c>
       <c r="B5">
         <v>2009</v>
@@ -467,30 +461,21 @@
       <c r="D5">
         <v>2010</v>
       </c>
-      <c r="E5">
-        <v>-0.5959239132369731</v>
-      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>40130</v>
+        <v>40310</v>
       </c>
       <c r="B6">
-        <v>2009</v>
-      </c>
-      <c r="C6">
-        <v>-1.120856461469888</v>
+        <v>2010</v>
       </c>
       <c r="D6">
-        <v>2010</v>
-      </c>
-      <c r="E6">
-        <v>0.3150445116460121</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>40310</v>
+        <v>40494</v>
       </c>
       <c r="B7">
         <v>2010</v>
@@ -501,30 +486,21 @@
       <c r="D7">
         <v>2011</v>
       </c>
-      <c r="E7">
-        <v>0.6309321758273256</v>
-      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>40494</v>
+        <v>40676</v>
       </c>
       <c r="B8">
-        <v>2010</v>
-      </c>
-      <c r="C8">
-        <v>0.2946875655135184</v>
+        <v>2011</v>
       </c>
       <c r="D8">
-        <v>2011</v>
-      </c>
-      <c r="E8">
-        <v>1.394716403166685</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>40676</v>
+        <v>40862</v>
       </c>
       <c r="B9">
         <v>2011</v>
@@ -535,30 +511,21 @@
       <c r="D9">
         <v>2012</v>
       </c>
-      <c r="E9">
-        <v>2.01634251950924</v>
-      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>40862</v>
+        <v>41044</v>
       </c>
       <c r="B10">
-        <v>2011</v>
-      </c>
-      <c r="C10">
-        <v>1.242549344471122</v>
+        <v>2012</v>
       </c>
       <c r="D10">
-        <v>2012</v>
-      </c>
-      <c r="E10">
-        <v>1.129570842833005</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>41044</v>
+        <v>41228</v>
       </c>
       <c r="B11">
         <v>2012</v>
@@ -570,29 +537,29 @@
         <v>2013</v>
       </c>
       <c r="E11">
-        <v>1.939772997598466</v>
+        <v>0.9288717675470126</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>41228</v>
+        <v>41409</v>
       </c>
       <c r="B12">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C12">
-        <v>1.180122656701199</v>
+        <v>0.9006569003772169</v>
       </c>
       <c r="D12">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="E12">
-        <v>1.129049187797948</v>
+        <v>0.4141666450523163</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>41409</v>
+        <v>41592</v>
       </c>
       <c r="B13">
         <v>2013</v>
@@ -604,29 +571,29 @@
         <v>2014</v>
       </c>
       <c r="E13">
-        <v>2.090021059558644</v>
+        <v>1.416624765035412</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>41592</v>
+        <v>41774</v>
       </c>
       <c r="B14">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C14">
-        <v>1.381744454873757</v>
+        <v>1.298949644080372</v>
       </c>
       <c r="D14">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="E14">
-        <v>1.633367354477078</v>
+        <v>0.7446484179501223</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>41774</v>
+        <v>41957</v>
       </c>
       <c r="B15">
         <v>2014</v>
@@ -638,29 +605,29 @@
         <v>2015</v>
       </c>
       <c r="E15">
-        <v>2.084642581417584</v>
+        <v>1.075154359849861</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>41957</v>
+        <v>42137</v>
       </c>
       <c r="B16">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C16">
-        <v>1.404039427736437</v>
+        <v>1.485127130420993</v>
       </c>
       <c r="D16">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E16">
-        <v>1.649731081352623</v>
+        <v>0.8988967199517361</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>42137</v>
+        <v>42321</v>
       </c>
       <c r="B17">
         <v>2015</v>
@@ -672,29 +639,29 @@
         <v>2016</v>
       </c>
       <c r="E17">
-        <v>1.521991363853026</v>
+        <v>1.214249019249602</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>42321</v>
+        <v>42503</v>
       </c>
       <c r="B18">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C18">
-        <v>1.593617458167307</v>
+        <v>1.938044824544427</v>
       </c>
       <c r="D18">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E18">
-        <v>2.031337289618551</v>
+        <v>1.197301207077017</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>42503</v>
+        <v>42689</v>
       </c>
       <c r="B19">
         <v>2016</v>
@@ -706,29 +673,29 @@
         <v>2017</v>
       </c>
       <c r="E19">
-        <v>1.6904035303825</v>
+        <v>1.180565832117297</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>42689</v>
+        <v>42867</v>
       </c>
       <c r="B20">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C20">
-        <v>1.885212754467758</v>
+        <v>1.730502563828185</v>
       </c>
       <c r="D20">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="E20">
-        <v>1.81400703472574</v>
+        <v>1.20920901052266</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>42867</v>
+        <v>43053</v>
       </c>
       <c r="B21">
         <v>2017</v>
@@ -740,63 +707,63 @@
         <v>2018</v>
       </c>
       <c r="E21">
-        <v>2.014077225132471</v>
+        <v>1.638669199130427</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>43053</v>
+        <v>43145</v>
       </c>
       <c r="B22">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C22">
-        <v>1.877372574190161</v>
+        <v>1.95207711838874</v>
       </c>
       <c r="D22">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E22">
-        <v>2.208009493344054</v>
+        <v>1.265658248521984</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>43145</v>
+        <v>43235</v>
       </c>
       <c r="B23">
         <v>2018</v>
       </c>
       <c r="C23">
-        <v>2.300089002375394</v>
+        <v>2.211325510218898</v>
       </c>
       <c r="D23">
         <v>2019</v>
       </c>
       <c r="E23">
-        <v>2.190100401513395</v>
+        <v>1.513838358900466</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>43235</v>
+        <v>43326</v>
       </c>
       <c r="B24">
         <v>2018</v>
       </c>
       <c r="C24">
-        <v>2.296241910075758</v>
+        <v>2.320468093590722</v>
       </c>
       <c r="D24">
         <v>2019</v>
       </c>
       <c r="E24">
-        <v>1.948889539247078</v>
+        <v>1.753251432658076</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>43326</v>
+        <v>43418</v>
       </c>
       <c r="B25">
         <v>2018</v>
@@ -808,63 +775,63 @@
         <v>2019</v>
       </c>
       <c r="E25">
-        <v>1.88787455560655</v>
+        <v>1.540918326052476</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>43418</v>
+        <v>43510</v>
       </c>
       <c r="B26">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C26">
-        <v>2.279995067217899</v>
+        <v>1.036239343320755</v>
       </c>
       <c r="D26">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E26">
-        <v>1.224414593777601</v>
+        <v>1.010297891741785</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>43510</v>
+        <v>43600</v>
       </c>
       <c r="B27">
         <v>2019</v>
       </c>
       <c r="C27">
-        <v>1.110508995085002</v>
+        <v>1.095903126316466</v>
       </c>
       <c r="D27">
         <v>2020</v>
       </c>
       <c r="E27">
-        <v>1.400566035871109</v>
+        <v>1.063472944477306</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>43600</v>
+        <v>43691</v>
       </c>
       <c r="B28">
         <v>2019</v>
       </c>
       <c r="C28">
-        <v>1.120504106595632</v>
+        <v>1.142800289129831</v>
       </c>
       <c r="D28">
         <v>2020</v>
       </c>
       <c r="E28">
-        <v>1.381641980784787</v>
+        <v>1.156859643506358</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>43691</v>
+        <v>43783</v>
       </c>
       <c r="B29">
         <v>2019</v>
@@ -876,63 +843,63 @@
         <v>2020</v>
       </c>
       <c r="E29">
-        <v>0.6487450558480656</v>
+        <v>0.5773070399857971</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>43783</v>
+        <v>43875</v>
       </c>
       <c r="B30">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C30">
-        <v>1.025257057800411</v>
+        <v>0.2803494251802263</v>
       </c>
       <c r="D30">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E30">
-        <v>0.5563247180809361</v>
+        <v>0.855281508838468</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>43875</v>
+        <v>43966</v>
       </c>
       <c r="B31">
         <v>2020</v>
       </c>
       <c r="C31">
-        <v>-1.000425304790598</v>
+        <v>0.8137456736830195</v>
       </c>
       <c r="D31">
         <v>2021</v>
       </c>
       <c r="E31">
-        <v>3.013584382764045</v>
+        <v>1.30966355756772</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>43966</v>
+        <v>44068</v>
       </c>
       <c r="B32">
         <v>2020</v>
       </c>
       <c r="C32">
-        <v>-1.841794035573197</v>
+        <v>-1.788000783651811</v>
       </c>
       <c r="D32">
         <v>2021</v>
       </c>
       <c r="E32">
-        <v>2.859952625832229</v>
+        <v>-4.916332952555802</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>44068</v>
+        <v>44159</v>
       </c>
       <c r="B33">
         <v>2020</v>
@@ -944,63 +911,63 @@
         <v>2021</v>
       </c>
       <c r="E33">
-        <v>2.99720978720075</v>
+        <v>-0.415982961498651</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>44159</v>
+        <v>44251</v>
       </c>
       <c r="B34">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C34">
-        <v>-1.788000783651811</v>
+        <v>-1.484481523646708</v>
       </c>
       <c r="D34">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E34">
-        <v>1.264747916836839</v>
+        <v>0.7587717871427202</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>44251</v>
+        <v>44341</v>
       </c>
       <c r="B35">
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>-0.5713481720502012</v>
+        <v>-1.434438137829841</v>
       </c>
       <c r="D35">
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>4.71430177854022</v>
+        <v>0.8159375071586261</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>44341</v>
+        <v>44432</v>
       </c>
       <c r="B36">
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>-0.2827693069175186</v>
+        <v>-1.098964423305859</v>
       </c>
       <c r="D36">
         <v>2022</v>
       </c>
       <c r="E36">
-        <v>6.200092505048471</v>
+        <v>1.122873944479474</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>44432</v>
+        <v>44525</v>
       </c>
       <c r="B37">
         <v>2021</v>
@@ -1012,63 +979,63 @@
         <v>2022</v>
       </c>
       <c r="E37">
-        <v>4.895062464652677</v>
+        <v>1.426719405738508</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>44525</v>
+        <v>44617</v>
       </c>
       <c r="B38">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C38">
-        <v>-1.098964423305859</v>
+        <v>1.659091542859148</v>
       </c>
       <c r="D38">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E38">
-        <v>2.222432428535481</v>
+        <v>1.163281843182573</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>44617</v>
+        <v>44706</v>
       </c>
       <c r="B39">
         <v>2022</v>
       </c>
       <c r="C39">
-        <v>2.24168824042239</v>
+        <v>1.85385197842538</v>
       </c>
       <c r="D39">
         <v>2023</v>
       </c>
       <c r="E39">
-        <v>3.429058262078644</v>
+        <v>1.2808239555127</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>44706</v>
+        <v>44798</v>
       </c>
       <c r="B40">
         <v>2022</v>
       </c>
       <c r="C40">
-        <v>2.133246428602353</v>
+        <v>1.916393754370604</v>
       </c>
       <c r="D40">
         <v>2023</v>
       </c>
       <c r="E40">
-        <v>3.260264546812519</v>
+        <v>1.358354219817404</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>44798</v>
+        <v>44890</v>
       </c>
       <c r="B41">
         <v>2022</v>
@@ -1080,63 +1047,63 @@
         <v>2023</v>
       </c>
       <c r="E41">
-        <v>-0.1354275086414392</v>
+        <v>0.5205511175203181</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>44890</v>
+        <v>44981</v>
       </c>
       <c r="B42">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C42">
-        <v>1.916393754370604</v>
+        <v>-0.2882829247660479</v>
       </c>
       <c r="D42">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E42">
-        <v>-0.6800305325212697</v>
+        <v>0.9814522951840488</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>44981</v>
+        <v>45071</v>
       </c>
       <c r="B43">
         <v>2023</v>
       </c>
       <c r="C43">
-        <v>-0.6738153173904027</v>
+        <v>-0.6079479926716203</v>
       </c>
       <c r="D43">
         <v>2024</v>
       </c>
       <c r="E43">
-        <v>1.67670478866615</v>
+        <v>0.8021760422591839</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45071</v>
+        <v>45163</v>
       </c>
       <c r="B44">
         <v>2023</v>
       </c>
       <c r="C44">
-        <v>-0.692247441448246</v>
+        <v>-0.7359525160776204</v>
       </c>
       <c r="D44">
         <v>2024</v>
       </c>
       <c r="E44">
-        <v>1.168821580544521</v>
+        <v>0.6489285084265051</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45163</v>
+        <v>45254</v>
       </c>
       <c r="B45">
         <v>2023</v>
@@ -1148,63 +1115,63 @@
         <v>2024</v>
       </c>
       <c r="E45">
-        <v>0.9794361377544636</v>
+        <v>0.3517304536567734</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45254</v>
+        <v>45345</v>
       </c>
       <c r="B46">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C46">
-        <v>-0.7359525160776204</v>
+        <v>0.1328794705491632</v>
       </c>
       <c r="D46">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="E46">
-        <v>0.287495466512433</v>
+        <v>0.8679080298191755</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45345</v>
+        <v>45436</v>
       </c>
       <c r="B47">
         <v>2024</v>
       </c>
       <c r="C47">
-        <v>0.1233178182500572</v>
+        <v>-0.06520462171909491</v>
       </c>
       <c r="D47">
         <v>2025</v>
       </c>
       <c r="E47">
-        <v>1.77500207390533</v>
+        <v>0.7367476213790747</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45436</v>
+        <v>45534</v>
       </c>
       <c r="B48">
         <v>2024</v>
       </c>
       <c r="C48">
-        <v>-0.09977030619552352</v>
+        <v>-0.187152549496028</v>
       </c>
       <c r="D48">
         <v>2025</v>
       </c>
       <c r="E48">
-        <v>1.359191874382004</v>
+        <v>0.5818712200032161</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45534</v>
+        <v>45618</v>
       </c>
       <c r="B49">
         <v>2024</v>
@@ -1216,75 +1183,58 @@
         <v>2025</v>
       </c>
       <c r="E49">
-        <v>0.7911557381817147</v>
+        <v>0.4186921370205043</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45618</v>
+        <v>45713</v>
       </c>
       <c r="B50">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="C50">
-        <v>-0.187152549496028</v>
+        <v>0.5283432505880592</v>
       </c>
       <c r="D50">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="E50">
-        <v>0.3967335531545713</v>
+        <v>0.8122218530175696</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45713</v>
+        <v>45800</v>
       </c>
       <c r="B51">
         <v>2025</v>
       </c>
       <c r="C51">
-        <v>0.6196879289662949</v>
+        <v>0.5869668956646645</v>
       </c>
       <c r="D51">
         <v>2026</v>
       </c>
       <c r="E51">
-        <v>0.9145927822770572</v>
+        <v>0.8208952814083625</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45800</v>
+        <v>45891</v>
       </c>
       <c r="B52">
         <v>2025</v>
       </c>
       <c r="C52">
-        <v>0.6151910652193671</v>
+        <v>0.6150340712028246</v>
       </c>
       <c r="D52">
         <v>2026</v>
       </c>
       <c r="E52">
-        <v>1.258496331371473</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="2">
-        <v>45891</v>
-      </c>
-      <c r="B53">
-        <v>2025</v>
-      </c>
-      <c r="C53">
-        <v>0.6150340712028246</v>
-      </c>
-      <c r="D53">
-        <v>2026</v>
-      </c>
-      <c r="E53">
-        <v>1.217702097822548</v>
+        <v>0.831632580682462</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_DOMUSE_yoy_AR2_50_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_DOMUSE_yoy_AR2_50_9_full.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,18 +417,21 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>39583</v>
+        <v>39400</v>
       </c>
       <c r="B2">
+        <v>2007</v>
+      </c>
+      <c r="C2">
+        <v>1.144978573787081</v>
+      </c>
+      <c r="D2">
         <v>2008</v>
-      </c>
-      <c r="D2">
-        <v>2009</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>39765</v>
+        <v>39583</v>
       </c>
       <c r="B3">
         <v>2008</v>
@@ -439,802 +442,840 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>39948</v>
+        <v>39765</v>
       </c>
       <c r="B4">
+        <v>2008</v>
+      </c>
+      <c r="C4">
+        <v>1.381024225294869</v>
+      </c>
+      <c r="D4">
         <v>2009</v>
-      </c>
-      <c r="D4">
-        <v>2010</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>40130</v>
+        <v>39948</v>
       </c>
       <c r="B5">
         <v>2009</v>
       </c>
-      <c r="C5">
-        <v>-1.120856461469888</v>
-      </c>
       <c r="D5">
         <v>2010</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>40310</v>
+        <v>40130</v>
       </c>
       <c r="B6">
+        <v>2009</v>
+      </c>
+      <c r="C6">
+        <v>-0.8792832172735965</v>
+      </c>
+      <c r="D6">
         <v>2010</v>
-      </c>
-      <c r="D6">
-        <v>2011</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>40494</v>
+        <v>40310</v>
       </c>
       <c r="B7">
         <v>2010</v>
       </c>
       <c r="C7">
-        <v>0.2946875655135184</v>
+        <v>-0.5865396705125869</v>
       </c>
       <c r="D7">
         <v>2011</v>
       </c>
+      <c r="E7">
+        <v>0.8461488352962343</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>40676</v>
+        <v>40494</v>
       </c>
       <c r="B8">
+        <v>2010</v>
+      </c>
+      <c r="C8">
+        <v>0.9337833426867448</v>
+      </c>
+      <c r="D8">
         <v>2011</v>
       </c>
-      <c r="D8">
-        <v>2012</v>
+      <c r="E8">
+        <v>2.776721259569048</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>40862</v>
+        <v>40676</v>
       </c>
       <c r="B9">
         <v>2011</v>
       </c>
       <c r="C9">
-        <v>1.242549344471122</v>
+        <v>2.46453841416181</v>
       </c>
       <c r="D9">
         <v>2012</v>
       </c>
+      <c r="E9">
+        <v>1.283106670049072</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>41044</v>
+        <v>40862</v>
       </c>
       <c r="B10">
+        <v>2011</v>
+      </c>
+      <c r="C10">
+        <v>2.791140000794279</v>
+      </c>
+      <c r="D10">
         <v>2012</v>
       </c>
-      <c r="D10">
-        <v>2013</v>
+      <c r="E10">
+        <v>1.397663935193227</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>41228</v>
+        <v>41044</v>
       </c>
       <c r="B11">
         <v>2012</v>
       </c>
       <c r="C11">
-        <v>1.180122656701199</v>
+        <v>1.024488446359717</v>
       </c>
       <c r="D11">
         <v>2013</v>
       </c>
       <c r="E11">
-        <v>0.9288717675470126</v>
+        <v>0.883996728309433</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>41409</v>
+        <v>41228</v>
       </c>
       <c r="B12">
+        <v>2012</v>
+      </c>
+      <c r="C12">
+        <v>0.4451370000809973</v>
+      </c>
+      <c r="D12">
         <v>2013</v>
       </c>
-      <c r="C12">
-        <v>0.9006569003772169</v>
-      </c>
-      <c r="D12">
-        <v>2014</v>
-      </c>
       <c r="E12">
-        <v>0.4141666450523163</v>
+        <v>0.1571217018783377</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>41592</v>
+        <v>41409</v>
       </c>
       <c r="B13">
         <v>2013</v>
       </c>
       <c r="C13">
-        <v>1.381744454873757</v>
+        <v>-0.2650887206215868</v>
       </c>
       <c r="D13">
         <v>2014</v>
       </c>
       <c r="E13">
-        <v>1.416624765035412</v>
+        <v>0.7934423576064997</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>41774</v>
+        <v>41592</v>
       </c>
       <c r="B14">
+        <v>2013</v>
+      </c>
+      <c r="C14">
+        <v>0.2545814083968478</v>
+      </c>
+      <c r="D14">
         <v>2014</v>
       </c>
-      <c r="C14">
-        <v>1.298949644080372</v>
-      </c>
-      <c r="D14">
-        <v>2015</v>
-      </c>
       <c r="E14">
-        <v>0.7446484179501223</v>
+        <v>1.564494423159446</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>41957</v>
+        <v>41774</v>
       </c>
       <c r="B15">
         <v>2014</v>
       </c>
       <c r="C15">
-        <v>1.404039427736437</v>
+        <v>2.011885157458759</v>
       </c>
       <c r="D15">
         <v>2015</v>
       </c>
       <c r="E15">
-        <v>1.075154359849861</v>
+        <v>1.708833114833652</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>42137</v>
+        <v>41957</v>
       </c>
       <c r="B16">
+        <v>2014</v>
+      </c>
+      <c r="C16">
+        <v>1.297015177357297</v>
+      </c>
+      <c r="D16">
         <v>2015</v>
       </c>
-      <c r="C16">
-        <v>1.485127130420993</v>
-      </c>
-      <c r="D16">
-        <v>2016</v>
-      </c>
       <c r="E16">
-        <v>0.8988967199517361</v>
+        <v>0.4654670911270031</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>42321</v>
+        <v>42137</v>
       </c>
       <c r="B17">
         <v>2015</v>
       </c>
       <c r="C17">
-        <v>1.593617458167307</v>
+        <v>1.582403480979067</v>
       </c>
       <c r="D17">
         <v>2016</v>
       </c>
       <c r="E17">
-        <v>1.214249019249602</v>
+        <v>1.315455703544299</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>42503</v>
+        <v>42321</v>
       </c>
       <c r="B18">
+        <v>2015</v>
+      </c>
+      <c r="C18">
+        <v>1.365576377841027</v>
+      </c>
+      <c r="D18">
         <v>2016</v>
       </c>
-      <c r="C18">
-        <v>1.938044824544427</v>
-      </c>
-      <c r="D18">
-        <v>2017</v>
-      </c>
       <c r="E18">
-        <v>1.197301207077017</v>
+        <v>1.13561893405616</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>42689</v>
+        <v>42503</v>
       </c>
       <c r="B19">
         <v>2016</v>
       </c>
       <c r="C19">
-        <v>1.885212754467758</v>
+        <v>2.232192661479382</v>
       </c>
       <c r="D19">
         <v>2017</v>
       </c>
       <c r="E19">
-        <v>1.180565832117297</v>
+        <v>1.471326103602411</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>42867</v>
+        <v>42689</v>
       </c>
       <c r="B20">
+        <v>2016</v>
+      </c>
+      <c r="C20">
+        <v>2.204449574611278</v>
+      </c>
+      <c r="D20">
         <v>2017</v>
       </c>
-      <c r="C20">
-        <v>1.730502563828185</v>
-      </c>
-      <c r="D20">
-        <v>2018</v>
-      </c>
       <c r="E20">
-        <v>1.20920901052266</v>
+        <v>1.120909053655028</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>43053</v>
+        <v>42867</v>
       </c>
       <c r="B21">
         <v>2017</v>
       </c>
       <c r="C21">
-        <v>1.877372574190161</v>
+        <v>1.672539262716755</v>
       </c>
       <c r="D21">
         <v>2018</v>
       </c>
       <c r="E21">
-        <v>1.638669199130427</v>
+        <v>1.230669741902624</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>43145</v>
+        <v>43053</v>
       </c>
       <c r="B22">
+        <v>2017</v>
+      </c>
+      <c r="C22">
+        <v>2.18621550610123</v>
+      </c>
+      <c r="D22">
         <v>2018</v>
       </c>
-      <c r="C22">
-        <v>1.95207711838874</v>
-      </c>
-      <c r="D22">
-        <v>2019</v>
-      </c>
       <c r="E22">
-        <v>1.265658248521984</v>
+        <v>2.012342079251583</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>43235</v>
+        <v>43145</v>
       </c>
       <c r="B23">
         <v>2018</v>
       </c>
       <c r="C23">
-        <v>2.211325510218898</v>
+        <v>1.563995324226086</v>
       </c>
       <c r="D23">
         <v>2019</v>
       </c>
       <c r="E23">
-        <v>1.513838358900466</v>
+        <v>1.203280089861591</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>43326</v>
+        <v>43235</v>
       </c>
       <c r="B24">
         <v>2018</v>
       </c>
       <c r="C24">
-        <v>2.320468093590722</v>
+        <v>1.547454231976442</v>
       </c>
       <c r="D24">
         <v>2019</v>
       </c>
       <c r="E24">
-        <v>1.753251432658076</v>
+        <v>1.200013281595735</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>43418</v>
+        <v>43326</v>
       </c>
       <c r="B25">
         <v>2018</v>
       </c>
       <c r="C25">
-        <v>2.279995067217899</v>
+        <v>1.893001630463798</v>
       </c>
       <c r="D25">
         <v>2019</v>
       </c>
       <c r="E25">
-        <v>1.540918326052476</v>
+        <v>1.606834725278361</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>43510</v>
+        <v>43418</v>
       </c>
       <c r="B26">
+        <v>2018</v>
+      </c>
+      <c r="C26">
+        <v>1.911050033324102</v>
+      </c>
+      <c r="D26">
         <v>2019</v>
       </c>
-      <c r="C26">
-        <v>1.036239343320755</v>
-      </c>
-      <c r="D26">
-        <v>2020</v>
-      </c>
       <c r="E26">
-        <v>1.010297891741785</v>
+        <v>1.897633937626764</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>43600</v>
+        <v>43510</v>
       </c>
       <c r="B27">
         <v>2019</v>
       </c>
       <c r="C27">
-        <v>1.095903126316466</v>
+        <v>1.619424880403786</v>
       </c>
       <c r="D27">
         <v>2020</v>
       </c>
       <c r="E27">
-        <v>1.063472944477306</v>
+        <v>1.295640847135293</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>43691</v>
+        <v>43600</v>
       </c>
       <c r="B28">
         <v>2019</v>
       </c>
       <c r="C28">
-        <v>1.142800289129831</v>
+        <v>1.380811415368788</v>
       </c>
       <c r="D28">
         <v>2020</v>
       </c>
       <c r="E28">
-        <v>1.156859643506358</v>
+        <v>1.063817241834708</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>43783</v>
+        <v>43691</v>
       </c>
       <c r="B29">
         <v>2019</v>
       </c>
       <c r="C29">
-        <v>1.025257057800411</v>
+        <v>1.596479532352513</v>
       </c>
       <c r="D29">
         <v>2020</v>
       </c>
       <c r="E29">
-        <v>0.5773070399857971</v>
+        <v>1.176451344144391</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>43875</v>
+        <v>43783</v>
       </c>
       <c r="B30">
+        <v>2019</v>
+      </c>
+      <c r="C30">
+        <v>1.457852003181337</v>
+      </c>
+      <c r="D30">
         <v>2020</v>
       </c>
-      <c r="C30">
-        <v>0.2803494251802263</v>
-      </c>
-      <c r="D30">
-        <v>2021</v>
-      </c>
       <c r="E30">
-        <v>0.855281508838468</v>
+        <v>0.5018989042238298</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>43966</v>
+        <v>43875</v>
       </c>
       <c r="B31">
         <v>2020</v>
       </c>
       <c r="C31">
-        <v>0.8137456736830195</v>
+        <v>0.8907338066868498</v>
       </c>
       <c r="D31">
         <v>2021</v>
       </c>
       <c r="E31">
-        <v>1.30966355756772</v>
+        <v>1.224374415316887</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>44068</v>
+        <v>43966</v>
       </c>
       <c r="B32">
         <v>2020</v>
       </c>
       <c r="C32">
-        <v>-1.788000783651811</v>
+        <v>-0.9147268599428826</v>
       </c>
       <c r="D32">
         <v>2021</v>
       </c>
       <c r="E32">
-        <v>-4.916332952555802</v>
+        <v>0.1022244835662045</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>44159</v>
+        <v>44068</v>
       </c>
       <c r="B33">
         <v>2020</v>
       </c>
       <c r="C33">
-        <v>-1.788000783651811</v>
+        <v>-3.357986809108382</v>
       </c>
       <c r="D33">
         <v>2021</v>
       </c>
       <c r="E33">
-        <v>-0.415982961498651</v>
+        <v>-0.9334188790558695</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>44251</v>
+        <v>44159</v>
       </c>
       <c r="B34">
+        <v>2020</v>
+      </c>
+      <c r="C34">
+        <v>-3.258619210312885</v>
+      </c>
+      <c r="D34">
         <v>2021</v>
       </c>
-      <c r="C34">
-        <v>-1.484481523646708</v>
-      </c>
-      <c r="D34">
-        <v>2022</v>
-      </c>
       <c r="E34">
-        <v>0.7587717871427202</v>
+        <v>-1.154010671959604</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>44341</v>
+        <v>44251</v>
       </c>
       <c r="B35">
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>-1.434438137829841</v>
+        <v>-1.915474612301826</v>
       </c>
       <c r="D35">
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>0.8159375071586261</v>
+        <v>0.552935955465661</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>44432</v>
+        <v>44341</v>
       </c>
       <c r="B36">
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>-1.098964423305859</v>
+        <v>-0.6863413708432242</v>
       </c>
       <c r="D36">
         <v>2022</v>
       </c>
       <c r="E36">
-        <v>1.122873944479474</v>
+        <v>1.199013851879926</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>44525</v>
+        <v>44432</v>
       </c>
       <c r="B37">
         <v>2021</v>
       </c>
       <c r="C37">
-        <v>-1.098964423305859</v>
+        <v>-0.1388955462784724</v>
       </c>
       <c r="D37">
         <v>2022</v>
       </c>
       <c r="E37">
-        <v>1.426719405738508</v>
+        <v>1.873103062899428</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>44617</v>
+        <v>44525</v>
       </c>
       <c r="B38">
+        <v>2021</v>
+      </c>
+      <c r="C38">
+        <v>0.4255262881966981</v>
+      </c>
+      <c r="D38">
         <v>2022</v>
       </c>
-      <c r="C38">
-        <v>1.659091542859148</v>
-      </c>
-      <c r="D38">
-        <v>2023</v>
-      </c>
       <c r="E38">
-        <v>1.163281843182573</v>
+        <v>2.711235034366544</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>44706</v>
+        <v>44617</v>
       </c>
       <c r="B39">
         <v>2022</v>
       </c>
       <c r="C39">
-        <v>1.85385197842538</v>
+        <v>2.776368360756853</v>
       </c>
       <c r="D39">
         <v>2023</v>
       </c>
       <c r="E39">
-        <v>1.2808239555127</v>
+        <v>1.372921474851796</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>44798</v>
+        <v>44706</v>
       </c>
       <c r="B40">
         <v>2022</v>
       </c>
       <c r="C40">
-        <v>1.916393754370604</v>
+        <v>3.676169537136298</v>
       </c>
       <c r="D40">
         <v>2023</v>
       </c>
       <c r="E40">
-        <v>1.358354219817404</v>
+        <v>1.620572283829613</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>44890</v>
+        <v>44798</v>
       </c>
       <c r="B41">
         <v>2022</v>
       </c>
       <c r="C41">
-        <v>1.916393754370604</v>
+        <v>3.463320568938566</v>
       </c>
       <c r="D41">
         <v>2023</v>
       </c>
       <c r="E41">
-        <v>0.5205511175203181</v>
+        <v>1.564773093408878</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>44981</v>
+        <v>44890</v>
       </c>
       <c r="B42">
+        <v>2022</v>
+      </c>
+      <c r="C42">
+        <v>3.293290997728171</v>
+      </c>
+      <c r="D42">
         <v>2023</v>
       </c>
-      <c r="C42">
-        <v>-0.2882829247660479</v>
-      </c>
-      <c r="D42">
-        <v>2024</v>
-      </c>
       <c r="E42">
-        <v>0.9814522951840488</v>
+        <v>0.8446287801135322</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45071</v>
+        <v>44981</v>
       </c>
       <c r="B43">
         <v>2023</v>
       </c>
       <c r="C43">
-        <v>-0.6079479926716203</v>
+        <v>0.3757906428468516</v>
       </c>
       <c r="D43">
         <v>2024</v>
       </c>
       <c r="E43">
-        <v>0.8021760422591839</v>
+        <v>0.9948355516059104</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45163</v>
+        <v>45071</v>
       </c>
       <c r="B44">
         <v>2023</v>
       </c>
       <c r="C44">
-        <v>-0.7359525160776204</v>
+        <v>-0.3214161021417694</v>
       </c>
       <c r="D44">
         <v>2024</v>
       </c>
       <c r="E44">
-        <v>0.6489285084265051</v>
+        <v>0.7147372843446353</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45254</v>
+        <v>45163</v>
       </c>
       <c r="B45">
         <v>2023</v>
       </c>
       <c r="C45">
-        <v>-0.7359525160776204</v>
+        <v>-0.2871245688614854</v>
       </c>
       <c r="D45">
         <v>2024</v>
       </c>
       <c r="E45">
-        <v>0.3517304536567734</v>
+        <v>0.6102115809060393</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45345</v>
+        <v>45254</v>
       </c>
       <c r="B46">
+        <v>2023</v>
+      </c>
+      <c r="C46">
+        <v>-0.2814561130375925</v>
+      </c>
+      <c r="D46">
         <v>2024</v>
       </c>
-      <c r="C46">
-        <v>0.1328794705491632</v>
-      </c>
-      <c r="D46">
-        <v>2025</v>
-      </c>
       <c r="E46">
-        <v>0.8679080298191755</v>
+        <v>0.2005659760944134</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45436</v>
+        <v>45345</v>
       </c>
       <c r="B47">
         <v>2024</v>
       </c>
       <c r="C47">
-        <v>-0.06520462171909491</v>
+        <v>-0.2492807705659184</v>
       </c>
       <c r="D47">
         <v>2025</v>
       </c>
       <c r="E47">
-        <v>0.7367476213790747</v>
+        <v>0.8813011048662167</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45534</v>
+        <v>45436</v>
       </c>
       <c r="B48">
         <v>2024</v>
       </c>
       <c r="C48">
-        <v>-0.187152549496028</v>
+        <v>-0.968109702189679</v>
       </c>
       <c r="D48">
         <v>2025</v>
       </c>
       <c r="E48">
-        <v>0.5818712200032161</v>
+        <v>0.7595446561616592</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45618</v>
+        <v>45534</v>
       </c>
       <c r="B49">
         <v>2024</v>
       </c>
       <c r="C49">
-        <v>-0.187152549496028</v>
+        <v>-0.9636841177852018</v>
       </c>
       <c r="D49">
         <v>2025</v>
       </c>
       <c r="E49">
-        <v>0.4186921370205043</v>
+        <v>0.6943677713693308</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45713</v>
+        <v>45618</v>
       </c>
       <c r="B50">
+        <v>2024</v>
+      </c>
+      <c r="C50">
+        <v>-0.6470065423293869</v>
+      </c>
+      <c r="D50">
         <v>2025</v>
       </c>
-      <c r="C50">
-        <v>0.5283432505880592</v>
-      </c>
-      <c r="D50">
-        <v>2026</v>
-      </c>
       <c r="E50">
-        <v>0.8122218530175696</v>
+        <v>1.323978403813442</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45800</v>
+        <v>45713</v>
       </c>
       <c r="B51">
         <v>2025</v>
       </c>
       <c r="C51">
-        <v>0.5869668956646645</v>
+        <v>2.491204377935397</v>
       </c>
       <c r="D51">
         <v>2026</v>
       </c>
       <c r="E51">
-        <v>0.8208952814083625</v>
+        <v>1.132843697158092</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45891</v>
+        <v>45800</v>
       </c>
       <c r="B52">
         <v>2025</v>
       </c>
       <c r="C52">
-        <v>0.6150340712028246</v>
+        <v>1.686416487556031</v>
       </c>
       <c r="D52">
         <v>2026</v>
       </c>
       <c r="E52">
-        <v>0.831632580682462</v>
+        <v>0.8971523338365817</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="2">
+        <v>45891</v>
+      </c>
+      <c r="B53">
+        <v>2025</v>
+      </c>
+      <c r="C53">
+        <v>2.053865394798304</v>
+      </c>
+      <c r="D53">
+        <v>2026</v>
+      </c>
+      <c r="E53">
+        <v>0.9854119532296979</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_DOMUSE_yoy_AR2_50_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_DOMUSE_yoy_AR2_50_9_full.xlsx
@@ -929,13 +929,13 @@
         <v>2020</v>
       </c>
       <c r="C33">
-        <v>-3.357986809108382</v>
+        <v>-5.423670413205206</v>
       </c>
       <c r="D33">
         <v>2021</v>
       </c>
       <c r="E33">
-        <v>-0.9334188790558695</v>
+        <v>-13.50936601867715</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -952,7 +952,7 @@
         <v>2021</v>
       </c>
       <c r="E34">
-        <v>-1.154010671959604</v>
+        <v>-1.055440300316768</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -963,13 +963,13 @@
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>-1.915474612301826</v>
+        <v>-0.7303748984839098</v>
       </c>
       <c r="D35">
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>0.552935955465661</v>
+        <v>0.7919242371448698</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -980,13 +980,13 @@
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>-0.6863413708432242</v>
+        <v>-1.272609278145864</v>
       </c>
       <c r="D36">
         <v>2022</v>
       </c>
       <c r="E36">
-        <v>1.199013851879926</v>
+        <v>0.7102324065039856</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -997,13 +997,13 @@
         <v>2021</v>
       </c>
       <c r="C37">
-        <v>-0.1388955462784724</v>
+        <v>-0.4696916954089025</v>
       </c>
       <c r="D37">
         <v>2022</v>
       </c>
       <c r="E37">
-        <v>1.873103062899428</v>
+        <v>1.31203482915998</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1020,7 +1020,7 @@
         <v>2022</v>
       </c>
       <c r="E38">
-        <v>2.711235034366544</v>
+        <v>2.531417074021203</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1031,13 +1031,13 @@
         <v>2022</v>
       </c>
       <c r="C39">
-        <v>2.776368360756853</v>
+        <v>2.421601157547526</v>
       </c>
       <c r="D39">
         <v>2023</v>
       </c>
       <c r="E39">
-        <v>1.372921474851796</v>
+        <v>1.342146019661561</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1048,13 +1048,13 @@
         <v>2022</v>
       </c>
       <c r="C40">
-        <v>3.676169537136298</v>
+        <v>3.414057840588947</v>
       </c>
       <c r="D40">
         <v>2023</v>
       </c>
       <c r="E40">
-        <v>1.620572283829613</v>
+        <v>1.512751839239068</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1065,13 +1065,13 @@
         <v>2022</v>
       </c>
       <c r="C41">
-        <v>3.463320568938566</v>
+        <v>3.446497438194984</v>
       </c>
       <c r="D41">
         <v>2023</v>
       </c>
       <c r="E41">
-        <v>1.564773093408878</v>
+        <v>1.554230939093526</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1088,7 +1088,7 @@
         <v>2023</v>
       </c>
       <c r="E42">
-        <v>0.8446287801135322</v>
+        <v>1.719850910752752</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1099,13 +1099,13 @@
         <v>2023</v>
       </c>
       <c r="C43">
-        <v>0.3757906428468516</v>
+        <v>1.040278435874376</v>
       </c>
       <c r="D43">
         <v>2024</v>
       </c>
       <c r="E43">
-        <v>0.9948355516059104</v>
+        <v>1.230639348888696</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1116,13 +1116,13 @@
         <v>2023</v>
       </c>
       <c r="C44">
-        <v>-0.3214161021417694</v>
+        <v>-0.0421033901841894</v>
       </c>
       <c r="D44">
         <v>2024</v>
       </c>
       <c r="E44">
-        <v>0.7147372843446353</v>
+        <v>0.9482719518098204</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1133,13 +1133,13 @@
         <v>2023</v>
       </c>
       <c r="C45">
-        <v>-0.2871245688614854</v>
+        <v>-0.1861140102549452</v>
       </c>
       <c r="D45">
         <v>2024</v>
       </c>
       <c r="E45">
-        <v>0.6102115809060393</v>
+        <v>0.8101552644408594</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1156,7 +1156,7 @@
         <v>2024</v>
       </c>
       <c r="E46">
-        <v>0.2005659760944134</v>
+        <v>0.5150746350407909</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1167,13 +1167,13 @@
         <v>2024</v>
       </c>
       <c r="C47">
-        <v>-0.2492807705659184</v>
+        <v>0.007352720904374443</v>
       </c>
       <c r="D47">
         <v>2025</v>
       </c>
       <c r="E47">
-        <v>0.8813011048662167</v>
+        <v>0.9174245618496224</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1184,13 +1184,13 @@
         <v>2024</v>
       </c>
       <c r="C48">
-        <v>-0.968109702189679</v>
+        <v>-0.7190724997773068</v>
       </c>
       <c r="D48">
         <v>2025</v>
       </c>
       <c r="E48">
-        <v>0.7595446561616592</v>
+        <v>0.881597784434196</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1201,13 +1201,13 @@
         <v>2024</v>
       </c>
       <c r="C49">
-        <v>-0.9636841177852018</v>
+        <v>-0.8745727750051557</v>
       </c>
       <c r="D49">
         <v>2025</v>
       </c>
       <c r="E49">
-        <v>0.6943677713693308</v>
+        <v>0.8126800125295874</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1224,7 +1224,7 @@
         <v>2025</v>
       </c>
       <c r="E50">
-        <v>1.323978403813442</v>
+        <v>1.208720904184801</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1235,13 +1235,13 @@
         <v>2025</v>
       </c>
       <c r="C51">
-        <v>2.491204377935397</v>
+        <v>2.09630020120315</v>
       </c>
       <c r="D51">
         <v>2026</v>
       </c>
       <c r="E51">
-        <v>1.132843697158092</v>
+        <v>0.9920392298766512</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1252,13 +1252,13 @@
         <v>2025</v>
       </c>
       <c r="C52">
-        <v>1.686416487556031</v>
+        <v>1.774363263045231</v>
       </c>
       <c r="D52">
         <v>2026</v>
       </c>
       <c r="E52">
-        <v>0.8971523338365817</v>
+        <v>0.9714810761510817</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1269,13 +1269,13 @@
         <v>2025</v>
       </c>
       <c r="C53">
-        <v>2.053865394798304</v>
+        <v>2.07713872880797</v>
       </c>
       <c r="D53">
         <v>2026</v>
       </c>
       <c r="E53">
-        <v>0.9854119532296979</v>
+        <v>1.05516023322334</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_DOMUSE_yoy_AR2_50_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_DOMUSE_yoy_AR2_50_9_full.xlsx
@@ -422,9 +422,6 @@
       <c r="B2">
         <v>2007</v>
       </c>
-      <c r="C2">
-        <v>1.144978573787081</v>
-      </c>
       <c r="D2">
         <v>2008</v>
       </c>
@@ -447,9 +444,6 @@
       <c r="B4">
         <v>2008</v>
       </c>
-      <c r="C4">
-        <v>1.381024225294869</v>
-      </c>
       <c r="D4">
         <v>2009</v>
       </c>
@@ -473,7 +467,7 @@
         <v>2009</v>
       </c>
       <c r="C6">
-        <v>-0.8792832172735965</v>
+        <v>-0.8792832172735632</v>
       </c>
       <c r="D6">
         <v>2010</v>
@@ -493,7 +487,7 @@
         <v>2011</v>
       </c>
       <c r="E7">
-        <v>0.8461488352962343</v>
+        <v>0.8461488352962565</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -504,13 +498,13 @@
         <v>2010</v>
       </c>
       <c r="C8">
-        <v>0.9337833426867448</v>
+        <v>0.9337833426867226</v>
       </c>
       <c r="D8">
         <v>2011</v>
       </c>
       <c r="E8">
-        <v>2.776721259569048</v>
+        <v>2.776721259569026</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -527,7 +521,7 @@
         <v>2012</v>
       </c>
       <c r="E9">
-        <v>1.283106670049072</v>
+        <v>1.28310667004905</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -538,13 +532,13 @@
         <v>2011</v>
       </c>
       <c r="C10">
-        <v>2.791140000794279</v>
+        <v>2.791140000794257</v>
       </c>
       <c r="D10">
         <v>2012</v>
       </c>
       <c r="E10">
-        <v>1.397663935193227</v>
+        <v>1.397663935193183</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -561,7 +555,7 @@
         <v>2013</v>
       </c>
       <c r="E11">
-        <v>0.883996728309433</v>
+        <v>0.8839967283094108</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -572,7 +566,7 @@
         <v>2012</v>
       </c>
       <c r="C12">
-        <v>0.4451370000809973</v>
+        <v>0.4451370000809529</v>
       </c>
       <c r="D12">
         <v>2013</v>
@@ -589,7 +583,7 @@
         <v>2013</v>
       </c>
       <c r="C13">
-        <v>-0.2650887206215868</v>
+        <v>-0.265088720621609</v>
       </c>
       <c r="D13">
         <v>2014</v>
@@ -612,7 +606,7 @@
         <v>2014</v>
       </c>
       <c r="E14">
-        <v>1.564494423159446</v>
+        <v>1.564494423159402</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -623,13 +617,13 @@
         <v>2014</v>
       </c>
       <c r="C15">
-        <v>2.011885157458759</v>
+        <v>2.011885157458737</v>
       </c>
       <c r="D15">
         <v>2015</v>
       </c>
       <c r="E15">
-        <v>1.708833114833652</v>
+        <v>1.708833114833608</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -663,7 +657,7 @@
         <v>2016</v>
       </c>
       <c r="E17">
-        <v>1.315455703544299</v>
+        <v>1.315455703544322</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -691,13 +685,13 @@
         <v>2016</v>
       </c>
       <c r="C19">
-        <v>2.232192661479382</v>
+        <v>2.232192661479337</v>
       </c>
       <c r="D19">
         <v>2017</v>
       </c>
       <c r="E19">
-        <v>1.471326103602411</v>
+        <v>1.471326103602433</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -708,13 +702,13 @@
         <v>2016</v>
       </c>
       <c r="C20">
-        <v>2.204449574611278</v>
+        <v>2.2044495746113</v>
       </c>
       <c r="D20">
         <v>2017</v>
       </c>
       <c r="E20">
-        <v>1.120909053655028</v>
+        <v>1.120909053655073</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -725,7 +719,7 @@
         <v>2017</v>
       </c>
       <c r="C21">
-        <v>1.672539262716755</v>
+        <v>1.672539262716777</v>
       </c>
       <c r="D21">
         <v>2018</v>
@@ -765,7 +759,7 @@
         <v>2019</v>
       </c>
       <c r="E23">
-        <v>1.203280089861591</v>
+        <v>1.203280089861614</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -782,7 +776,7 @@
         <v>2019</v>
       </c>
       <c r="E24">
-        <v>1.200013281595735</v>
+        <v>1.200013281595758</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -799,7 +793,7 @@
         <v>2019</v>
       </c>
       <c r="E25">
-        <v>1.606834725278361</v>
+        <v>1.606834725278339</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -816,7 +810,7 @@
         <v>2019</v>
       </c>
       <c r="E26">
-        <v>1.897633937626764</v>
+        <v>1.897633937626786</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -827,13 +821,13 @@
         <v>2019</v>
       </c>
       <c r="C27">
-        <v>1.619424880403786</v>
+        <v>1.619424880403764</v>
       </c>
       <c r="D27">
         <v>2020</v>
       </c>
       <c r="E27">
-        <v>1.295640847135293</v>
+        <v>1.295640847135271</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -844,13 +838,13 @@
         <v>2019</v>
       </c>
       <c r="C28">
-        <v>1.380811415368788</v>
+        <v>1.38081141536881</v>
       </c>
       <c r="D28">
         <v>2020</v>
       </c>
       <c r="E28">
-        <v>1.063817241834708</v>
+        <v>1.063817241834686</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -867,7 +861,7 @@
         <v>2020</v>
       </c>
       <c r="E29">
-        <v>1.176451344144391</v>
+        <v>1.176451344144414</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -884,7 +878,7 @@
         <v>2020</v>
       </c>
       <c r="E30">
-        <v>0.5018989042238298</v>
+        <v>0.5018989042238076</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -895,7 +889,7 @@
         <v>2020</v>
       </c>
       <c r="C31">
-        <v>0.8907338066868498</v>
+        <v>0.8907338066868276</v>
       </c>
       <c r="D31">
         <v>2021</v>
@@ -912,13 +906,13 @@
         <v>2020</v>
       </c>
       <c r="C32">
-        <v>-0.9147268599428826</v>
+        <v>-0.9147268599429048</v>
       </c>
       <c r="D32">
         <v>2021</v>
       </c>
       <c r="E32">
-        <v>0.1022244835662045</v>
+        <v>0.1022244835662267</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -929,13 +923,13 @@
         <v>2020</v>
       </c>
       <c r="C33">
-        <v>-5.423670413205206</v>
+        <v>-5.423670413205217</v>
       </c>
       <c r="D33">
         <v>2021</v>
       </c>
       <c r="E33">
-        <v>-13.50936601867715</v>
+        <v>-13.50936601867714</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -946,13 +940,13 @@
         <v>2020</v>
       </c>
       <c r="C34">
-        <v>-3.258619210312885</v>
+        <v>-3.258619210312896</v>
       </c>
       <c r="D34">
         <v>2021</v>
       </c>
       <c r="E34">
-        <v>-1.055440300316768</v>
+        <v>-1.055440300316746</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -969,7 +963,7 @@
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>0.7919242371448698</v>
+        <v>0.791924237144892</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -980,7 +974,7 @@
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>-1.272609278145864</v>
+        <v>-1.272609278145886</v>
       </c>
       <c r="D36">
         <v>2022</v>
@@ -997,13 +991,13 @@
         <v>2021</v>
       </c>
       <c r="C37">
-        <v>-0.4696916954089025</v>
+        <v>-0.4696916954088914</v>
       </c>
       <c r="D37">
         <v>2022</v>
       </c>
       <c r="E37">
-        <v>1.31203482915998</v>
+        <v>1.312034829159958</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1014,13 +1008,13 @@
         <v>2021</v>
       </c>
       <c r="C38">
-        <v>0.4255262881966981</v>
+        <v>0.4255262881966759</v>
       </c>
       <c r="D38">
         <v>2022</v>
       </c>
       <c r="E38">
-        <v>2.531417074021203</v>
+        <v>2.531417074021181</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1031,13 +1025,13 @@
         <v>2022</v>
       </c>
       <c r="C39">
-        <v>2.421601157547526</v>
+        <v>2.421601157547548</v>
       </c>
       <c r="D39">
         <v>2023</v>
       </c>
       <c r="E39">
-        <v>1.342146019661561</v>
+        <v>1.342146019661583</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1048,13 +1042,13 @@
         <v>2022</v>
       </c>
       <c r="C40">
-        <v>3.414057840588947</v>
+        <v>3.414057840588924</v>
       </c>
       <c r="D40">
         <v>2023</v>
       </c>
       <c r="E40">
-        <v>1.512751839239068</v>
+        <v>1.51275183923909</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1088,7 +1082,7 @@
         <v>2023</v>
       </c>
       <c r="E42">
-        <v>1.719850910752752</v>
+        <v>1.719850910752729</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1099,13 +1093,13 @@
         <v>2023</v>
       </c>
       <c r="C43">
-        <v>1.040278435874376</v>
+        <v>1.040278435874398</v>
       </c>
       <c r="D43">
         <v>2024</v>
       </c>
       <c r="E43">
-        <v>1.230639348888696</v>
+        <v>1.230639348888651</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1116,13 +1110,13 @@
         <v>2023</v>
       </c>
       <c r="C44">
-        <v>-0.0421033901841894</v>
+        <v>-0.0421033901841561</v>
       </c>
       <c r="D44">
         <v>2024</v>
       </c>
       <c r="E44">
-        <v>0.9482719518098204</v>
+        <v>0.9482719518097982</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1133,7 +1127,7 @@
         <v>2023</v>
       </c>
       <c r="C45">
-        <v>-0.1861140102549452</v>
+        <v>-0.1861140102549341</v>
       </c>
       <c r="D45">
         <v>2024</v>
@@ -1150,7 +1144,7 @@
         <v>2023</v>
       </c>
       <c r="C46">
-        <v>-0.2814561130375925</v>
+        <v>-0.2814561130375703</v>
       </c>
       <c r="D46">
         <v>2024</v>
@@ -1173,7 +1167,7 @@
         <v>2025</v>
       </c>
       <c r="E47">
-        <v>0.9174245618496224</v>
+        <v>0.9174245618496668</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1184,13 +1178,13 @@
         <v>2024</v>
       </c>
       <c r="C48">
-        <v>-0.7190724997773068</v>
+        <v>-0.7190724997772957</v>
       </c>
       <c r="D48">
         <v>2025</v>
       </c>
       <c r="E48">
-        <v>0.881597784434196</v>
+        <v>0.8815977844341738</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1201,7 +1195,7 @@
         <v>2024</v>
       </c>
       <c r="C49">
-        <v>-0.8745727750051557</v>
+        <v>-0.8745727750051446</v>
       </c>
       <c r="D49">
         <v>2025</v>
@@ -1218,13 +1212,13 @@
         <v>2024</v>
       </c>
       <c r="C50">
-        <v>-0.6470065423293869</v>
+        <v>-0.6470065423293758</v>
       </c>
       <c r="D50">
         <v>2025</v>
       </c>
       <c r="E50">
-        <v>1.208720904184801</v>
+        <v>1.208720904184779</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1241,7 +1235,7 @@
         <v>2026</v>
       </c>
       <c r="E51">
-        <v>0.9920392298766512</v>
+        <v>0.9920392298766734</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1258,7 +1252,7 @@
         <v>2026</v>
       </c>
       <c r="E52">
-        <v>0.9714810761510817</v>
+        <v>0.9714810761510373</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1269,13 +1263,13 @@
         <v>2025</v>
       </c>
       <c r="C53">
-        <v>2.07713872880797</v>
+        <v>2.077138728807948</v>
       </c>
       <c r="D53">
         <v>2026</v>
       </c>
       <c r="E53">
-        <v>1.05516023322334</v>
+        <v>1.055160233223318</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_DOMUSE_yoy_AR2_50_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_DOMUSE_yoy_AR2_50_9_full.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1272,6 +1272,23 @@
         <v>1.055160233223318</v>
       </c>
     </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="2">
+        <v>45986</v>
+      </c>
+      <c r="B54">
+        <v>2025</v>
+      </c>
+      <c r="C54">
+        <v>2.043309689777173</v>
+      </c>
+      <c r="D54">
+        <v>2026</v>
+      </c>
+      <c r="E54">
+        <v>1.002299702378884</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
